--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/64_Osmaniye_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/64_Osmaniye_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D44B5F8-9993-46F2-8D35-9D28D87FCF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E0B287A-CB77-4434-BF3D-633AFBA1266D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" xr2:uid="{44164080-E686-456D-8233-4669D2FC2B56}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" xr2:uid="{14DED869-5261-4891-A505-14742B8DB8D5}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -937,14 +937,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{7E87F75E-B66B-4892-96DA-F3F4A944EA34}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B007E436-24D7-4C13-97D0-E599441079E8}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{814DB070-0AF5-4161-B672-88E310E61C3D}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{C47D46B6-55EC-4D60-8FE3-030AA0F39522}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{C603A74A-D1D7-4018-9D2E-7DA7BA2EF8DC}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{3137B545-6EC5-4D6B-BB21-76FA179D72AB}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{BBDEF5BA-FAE5-4BF9-831F-F5C7DB3A476C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{424D9B8A-A618-4EC7-9DD3-D8A31B3E350E}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{4B168E2E-369E-455E-A83D-98E35640F61C}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{34264ECA-0A22-4F7E-92F2-2946BAE94E33}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{A70870FF-3947-482B-9C38-69E6DFA20388}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{E3FD0C8E-EA64-45A7-A71E-3E24D2F16F6B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{0CE98FED-CCF0-41C5-B580-E214FF0072A0}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{A156A8F1-1B28-493E-A44F-DD4A3F5E06F8}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{FFC21823-6478-4FF1-BA2E-51D2EAD4D0A0}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{0F718A3A-801B-48F5-BD39-44EA71EFA586}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1314,7 +1314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B611DB23-D3E9-4378-9301-64DFBF3EB971}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F899060E-D71C-4964-8377-796F2D3A38A9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2601,18 +2601,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{508BD404-568B-4594-8E3A-65B9F8C8A030}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CBD8E4CF-2409-48BF-8F1D-C84CE1D7B571}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F57AE948-F082-4DEA-A372-75E1961038E2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5F4B9CD3-DCA5-4600-B978-7E1FBB2796C6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A5F00998-5F7E-4A57-8A40-59647437DB51}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1900EDED-A4C3-452B-9C31-2B0F29BD9EC2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{445C9B1B-0158-4080-98D1-08C5157386CD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A6888F2A-E802-443A-876C-AC68CCD63C5C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{80B4FB1D-09EB-48B8-AB99-89F7142FEC83}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B1915AC1-257D-4A30-8F0F-18C7DAAB60C7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{882A167F-7830-4538-928C-9CFE2FFA2AC8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{124848ED-4914-4648-AB2B-E90F3807A954}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5BE3FE25-03FD-4916-8992-CB60ED058FFF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A1A42550-DF4F-423E-9F11-0A453165ACF8}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{42667359-E653-45A5-BE40-9FD9E8623048}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3054E957-7C6E-4FEC-9AE1-805FF7E88B8B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{047059F4-C7ED-4140-B657-27C36F9D6939}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AF52E408-B0CC-4B77-A9AC-733D548E2700}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38B36E31-BC36-4B81-BAA9-32422C036D96}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF491E11-5C13-4A64-AC50-64B55EA4675C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FC08D279-D2F4-4EF2-A659-2C48769F0E91}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{350C261B-1E62-49AD-B6F9-17F8FC2F5CA1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4F26E39C-6C40-4B53-9DAA-4B39EFD27F24}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{32303142-CADD-42BA-8C29-BC49FDCC31B5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2625,7 +2625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63310A5-B898-4DCE-8BD3-36B9F62E3D7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C14B59-36DF-44F3-BFEB-B27F7C4152D6}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3898,18 +3898,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{52AF6190-2BBE-44E6-98DA-C12966E63FEB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4ABFB1B1-AE45-4DE4-9656-DA975A749B13}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F0779D7A-C2F0-46AE-931B-CE2655648B46}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2C1B8519-A12E-4992-ADCC-4C54B5B53545}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{017BC2E8-9CBD-495C-AA3A-34EF507864DB}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8B6300A8-B1E5-492B-BB2F-2F268426A55F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{94EBE67B-26A7-4EC7-8968-96630B06B587}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6B8ECB17-26E9-410C-B43B-62F83BBB4AD0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DE907F3A-1F80-4FAA-BE0D-93AC275610EE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5A0D9E0D-1F6C-48CB-A87B-1C931FE9B61A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E1499604-F532-4ED0-90E4-FF3F7CFCD834}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F0AAAFC9-ECC1-4176-B7D5-34D1AF2310E3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2916F04D-177C-4A00-8C6C-49D6E095FB56}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8BA4DAE3-1D85-4A81-8EB3-66CF1364BCD0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{72E4D783-9BD8-4B15-8D53-F61E83A16CAE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B77E1C99-CAD4-4F43-AC74-6971A3FA8440}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9CE56F0B-873B-4D23-81FF-F3B26CE2B776}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D8AE2935-76ED-4ECD-BA8B-BDE73DCB0A57}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D28D1371-451E-4199-B960-D61C39FE8A49}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7AD7F67B-256E-4E28-81A3-E603D4B90D8A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C7D043C3-022D-4292-A590-0BD0058C4F8E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1EF99B2B-21F8-4460-A20C-6A15C6831141}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D468203E-EBE1-4936-A27B-7CC9FD587456}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AE1C532F-B7CD-4D9D-A450-82AFCF3F102D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3922,7 +3922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1C26D2-9AEA-430C-BFF0-871740808F6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5296F24-4CA6-4B6D-B1AA-E9126BE97F92}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5191,18 +5191,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6D02D3D6-ED97-442F-A27D-4C98D57ADDB1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{163C758C-2C97-4C96-ADB3-F1C4EA29CAA2}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DF1B3B5E-C6C0-44A6-A906-4A619279EDED}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9C4DB282-4BC1-45AD-BD51-D67A27740849}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D9294FBD-63F8-45B7-B0C9-45617C79D289}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{88FFA42A-B407-456B-9E01-77EEA2E32F87}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8AB38D07-C858-4C1C-8510-4489F1C5A136}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7E788B1F-DD91-4825-80E5-AAC10F19CDE2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9EF2FB9D-ED0A-47AD-BBA8-4AB9D25FFC73}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{65E66AA8-96D0-482E-9008-462ACAB39BC2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9AF45978-EEAD-42A6-B6EB-DA49A83F7983}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{652BAB3F-447D-476D-A579-7C6F745462BF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5AD9FB97-66B5-4C9E-915A-EEC1A62C1A53}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CAD72939-94F0-40C7-8AB0-BFF5FC67625E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CC6FF87E-1968-416F-BFCC-7BB38E70E3B0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3A207173-26C4-42BE-AB90-2C835AD4D86C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1D9EBAE6-8811-4856-ABCC-3C6BA3E2E29A}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{38CBD1F4-1E80-45FF-AC72-25871CBF65B4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0BEE96CF-B705-4749-BF81-E0B5ECCC103E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9AAA2CB6-6C45-4436-839F-260D93ED9ECC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8541378C-17E9-430D-BD64-90CC10CDC365}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{15DDA720-87A7-4CD8-ACD2-95EA5A688D51}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{335997CF-95A1-41D6-AD7D-3F9F8F96BF2B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{92F0ECC7-B56F-4833-919F-231396A4251D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5215,7 +5215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81A9224-BA70-4FB7-B5C1-5F65A7B252E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA3521E-29D2-4622-9394-FA7E2FA59FDD}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6484,18 +6484,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{235DAE6E-351F-4F9F-8489-94521E2271B5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6C0C6E3B-266D-4E9C-8097-5ACE0B803493}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D375A062-985B-4627-8144-9026044F5D4F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D07B083D-7AC2-4A2E-A6E2-B735230363B2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{337621D6-ED5A-4C9B-AAA8-30A5A0CB74B7}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{703FEE1D-FFF6-4DBB-B6E7-01631B844FD5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6A3D245E-25FC-4AE1-8489-C7CB712FF176}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0DA1512B-1E79-4470-8244-BD930BBF1017}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{230509BA-C16C-4AC2-A208-C206A8472FB7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{58430629-4422-41B7-8829-7BF718461FD8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{03583D6C-D562-43E6-9D77-1B4632ED483D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{625AD98C-66F7-4FD2-B806-5BCFFF0BA32E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00BC488A-CB4A-4A50-B05C-9C463D86AF14}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{157CCFD3-8A2F-4C57-B8FD-BA5A2E85E502}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EF3000A4-6FB3-40CB-828C-F73F245E7471}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0154D3B7-16D6-4730-98EF-70EDD18F216C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3A8D0113-3686-4F24-ADC7-DC4335EBBFA9}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2FB66B3B-95A7-42C8-9D41-57F5BEFE6099}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{832E6302-D1B6-4EDB-A168-258FB074574B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CE44E5F5-0CAE-4A02-B480-E5E5B273831C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A23171DD-AC82-42FC-A3C3-5B5CF9523DD5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{78453101-A530-42C7-95C5-361296CF36E4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8E620A0F-EA73-466D-B2A0-018CF80B7137}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{23E86055-A498-4DAE-AB9E-A0783C00BD46}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6508,7 +6508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68E50F0-97AB-4E58-B3CC-3E10D74EEBF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CA7F1E-AF35-4CA5-B3C7-2BBA34EDC11D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7791,18 +7791,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{78CB56D5-7EBE-4462-AB38-E9A0EC2931B7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{44702998-0B79-4052-B551-D6F75251550C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9C3C1031-56C7-4034-9406-FAF1420FE821}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{06D2DE24-6566-40F4-87AC-F5E05849F1CF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C60C2C72-3EE5-4453-BCB1-7313AF7B18BB}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C3962368-785E-4C45-B27C-DE2C6C16E9DD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ED601EBC-99B9-4800-BA26-EB405F6D8FA9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BFA1AB0E-D5B9-43A4-B578-AAB73F410259}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{070EC58E-1E28-48C0-8E37-C0A00BC4ED60}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{67C40C96-2FF7-4973-A921-A71DF1EBA184}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9120ED9F-5428-4E73-8525-754C9C25BDCE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B413985-F67A-4096-B8FD-05A5183B8AC1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{27FFE549-9F97-48D0-9464-B00E7386124E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A7DCAD26-2306-4364-A9E9-041416050867}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CFCAD82E-9CFC-40F2-9B47-A4B79FD8C8CC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A79A0E26-92CB-4FA4-9D63-96C9424A89D1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{80C93CAF-4CD9-4412-9889-BC88622937FF}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0DB543FE-C5A2-4ACD-9FFF-0451E068F3ED}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{46E9E061-A7DA-4C45-90ED-1ED5DF9486A0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2D5F48E9-4EF1-4597-9114-9059B74D3DE9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9AEE7A2A-FBE8-4258-8075-F5D543C98591}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CC9DD026-DF33-47E0-B6FF-31473C56A6B3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A9560DE3-2E6C-4405-A31F-B3823E77A01D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3BA95711-57FC-4049-BCD5-72E4E83FC8B9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7815,7 +7815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83988CD3-DBDE-49D3-AF6E-6F4BE773699C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD81A0D7-172E-4459-B071-BF6F7A9A0A25}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9098,18 +9098,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6B4D45D3-DDFC-449B-BBC4-A50AD9F4CDB4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3D5A4030-71FA-4F49-9293-E7A604369236}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E275A878-3165-4578-8B70-78181EAD5D9E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{21F34F9C-CC7C-4ADA-8D4F-0D875F98A35C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2F368917-9155-4E4E-BDEF-EB9F31BC4781}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6DC25545-A85B-4BE5-90EF-569F8A8E39CA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2098F56B-898F-42D8-9533-E43AFA047028}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{760ACB07-143B-45D4-9C8E-49D3859715FB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A812BE2B-D9C2-43A7-9CB4-AE0F5D41F7C4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2B2540A3-4E2A-452A-AED4-0F944F0B57F0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B02F66E5-A06C-4213-97E7-EB685750DB12}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E33FD4DE-0A2C-4E3F-A05B-B570BDA42C90}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{20907782-A6EF-4648-806B-22EC48D7029D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8A9CE658-0BC2-4118-AC30-BC9849BE3FC5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D61A3C35-8C86-439F-8855-E015427AD20F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{416B1657-0625-4B7B-B6D9-1FDBAB5C0BA0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DF6950EE-79A1-498B-8D35-9163B6609F93}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3317DA0E-6267-409E-8E74-DC47A12046C2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E810743F-98B3-4BA0-AEC5-779D018A6E13}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F6D1A78F-3150-40D5-B3C8-A90937D3DF59}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F21C4C46-D5A4-4C3E-9DA6-A2E13AAF5963}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{561DA453-592B-4586-B971-3D5FAA8FAF94}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4583C54D-BAB0-4C68-8985-510F333DA405}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ABB749A0-20BE-4C5F-AABB-50E47282E83B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9122,7 +9122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5E88A4-15D0-4B56-B5ED-778A85D2EF6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D124A0-50F3-4146-9478-D15D03126758}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10405,18 +10405,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC5999C3-7E4B-4F91-806B-324572CF2555}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FF2EA954-1695-424F-82A2-A5C8D1026545}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{98CDBF0B-C151-40FD-BDEB-C14CF5618C3A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A665092C-A7A7-4339-A675-5AC0BA31D663}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CDE0FD6C-A25F-42E7-B5DB-DA450A221BFD}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9896FF95-5D47-4219-B970-999F6C771A0B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4E628DA5-A1C8-47F8-862F-0A2D510F6578}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{078ADDEB-1F94-4E6A-B554-3A02F46208B8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EAAE96A9-0CA4-4C66-BDED-FC4DC21F1494}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{792D10D0-CC6F-458C-9180-CDFDFE72F9FD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7A296EE3-0014-4166-AFEA-5D3B7EBD8EE7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B21EAD07-F354-4E64-8F82-4D8175971712}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{545F2944-F1F1-4EA9-AFA2-F063455FB853}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1E8A84CA-614A-42D4-9F2B-403C756F41A9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C8485D7E-6762-4043-AB04-3F6D96011A1D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CD12BE7F-2B71-447B-BB1F-44052CE2E704}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{31D4987A-30A6-4B2E-91E3-772987FDE3D7}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6D7B8E68-EB98-4F09-B6D6-A302FBB21ED5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7C08293E-8282-4C8B-9E65-58B34047BA60}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3026EBDC-55EA-4C3A-A153-AF937F79ECD4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0640A265-6C74-424D-9296-26773D821852}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E80B513A-D3C9-439E-9A46-231B72972EC1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E5B6A28-2EB9-4B61-ABB3-891BB3350402}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{15C1370D-8E28-4B60-A5C9-9B440DC86CF2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10429,7 +10429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF55F66-2F6B-4D88-9687-E37EF935D6C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD53FCE-4127-4A24-B012-876549DB9342}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11712,18 +11712,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AE99BE9D-1420-4201-8F04-2CE5A61D3C7E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{32A659B4-53E4-4F5D-B2DE-6871E879066C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8F843977-2082-4C6D-844A-C100F94B594B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9D4C6C52-0FFE-4460-ACBD-27A25E19A4EB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{91CF4DD0-7DF1-40B6-9D9D-732DF849793A}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{11B071C9-BEB5-4699-A25B-6BBD0B446E96}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3FD3F229-4D72-4083-8A19-D067E81CCBAA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6AA98956-3CD4-49C6-A6A5-997A658A4AC8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C60CE4E8-25B5-4C63-AC8D-E4CE8E7163C1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{51DE6899-65D1-425C-B270-67A1AC969F96}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A2AB9B5B-946B-4A0D-9910-97D852308061}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ED3A8D96-EA5B-437B-8FC6-CA1B232F5806}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BE9B33D6-EBE0-4535-B9AD-1D6E8437D1E6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7FAA871A-4C70-44A2-82F6-33020D973515}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{33056E4A-B53A-4B7C-8B1B-F381FAFB7F88}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{92C3F319-1EC1-4D9A-B423-D215A4C72B9E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{243EDB17-B1A2-4289-AB85-E1EC48EAE78C}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7CAD99B5-D338-4125-A1FD-CEB1232EAC77}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{75763D12-147A-4750-AE42-C80A0E26EDCE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{18EE0D5A-6347-4738-914F-4E47B0B325A3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7BDAA30B-C1A5-41D1-A887-9D753D72A6BD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{81EC09DA-E4C3-421D-81A9-9D1E53842FBC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5AA36108-A48E-44DE-80B4-D54284BF2EA0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{36036A94-59C2-449A-A705-B1B39E5E0F8F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11736,7 +11736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639200BC-6CE5-42D1-ABAA-C2D59CDA5B8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A726C6-2773-4A9A-B52C-91753D721F49}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13019,18 +13019,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E1AC72AF-186B-441A-899F-6D2658845A97}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6CA9794C-5D95-45CE-A646-A5F14257E97B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2534EC9F-4845-4FA7-B561-183B2E18CBE3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8608291B-A70F-49B1-A2D7-C0385A65329D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{093991A7-82FE-43A5-84D2-2CC34FAD3D5F}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{237B621B-184C-431B-986D-D10B16E7B78B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9EB92532-740F-4023-B931-78319EAFEC9B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6AEA0732-A56F-4A58-862D-3C0351995FD9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DC57B1C6-8D0E-4122-B0C7-AA14F65DD28C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0DB37C24-7575-4D35-96B2-0B24F05B3B4A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{631F63A9-54FD-420D-9DD7-B2CFE867FF97}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{250B6480-9C74-47B5-B056-94D23CD3E2EF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB80CDC2-C044-406A-AF24-969FA3338078}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{036A1BB7-8F40-4FD1-8CC4-B4388E5F2869}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4E3AFB53-687D-4C9D-A0EF-2B2153D03832}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FF60E2B2-D7ED-4E45-8441-6005E52348CD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{11D88DBD-9D7B-4EDA-9D7A-C3586C1FE5E7}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A4B512D9-2AF1-4BEE-8023-4E31A49C2E36}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{811E3E19-4F36-4670-9E23-933EFADB7134}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FBD20F69-9688-4063-9844-CC94D5B038A4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{85E1FD43-4043-4CAA-B83F-798EC81CDB44}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5118C4A1-EE24-46D0-9C27-8E9DD95BA8B4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E51D492E-DA82-4343-8FE5-EFD20CE460AE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{372994C2-F87C-4E6F-A767-DBCB03B9F12C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13043,7 +13043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C6E332-8DAD-478A-A972-2C679B417E91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0679F2B4-E34D-4896-94AE-BCEDEADF652B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14326,18 +14326,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A0F8A209-029B-41F0-AAF6-CDE997D4DE9D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E3E4C86A-952E-4EC7-98C1-1985499A27EA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A0917E6C-C289-4FE2-A675-3ACA8ABCC675}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BDB759AA-0381-459C-95A9-2348DC56CD0B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EF62A8C7-C6F2-44DA-8EBA-497E71AF048C}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2ECFCAAE-BE64-4566-B09A-D41DCE616833}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{36AEC71E-6B14-4499-98CC-524A79ED7819}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{99E10DF5-604E-48A1-B642-8FD142D92364}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6EF1657A-1B60-4C8B-B255-51AC3CE33307}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D14CBDF6-E4ED-4132-A51B-D9160D4C9F05}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0BBA8C9F-13B4-4AB9-8538-3C34641FA4DF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE51F5C5-D535-4CCE-A697-AFB6C079CAB2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AC558A84-DEBB-4B7D-80C2-6304E3FDCD76}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{17FCF802-8D4B-4E2B-9FCB-B33B3077F138}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DFC841CA-6970-40F1-9010-37F88A266DC3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F6705089-6765-494A-B019-D7C4C8BA5CD0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FB7E8328-31D2-42A4-92E4-13F6460085F5}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3649FF02-35F3-405F-BFDA-1E0A2AE95496}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{362CE97E-385E-4189-9A62-6E531448B88D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E830879B-113E-4554-B0A3-CD2F8E5E835D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DC1F5C72-E25D-4201-8639-F9E07E08EFCD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B13E016F-7EA4-4148-ACB5-41F886A108FD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D6E42D9C-7C9D-48F7-828F-8EFAD982BE94}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B3744A06-5F95-4365-B9FA-4296A9CBE3E7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14350,7 +14350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFA362C-C3BD-46AD-9E81-CD9820FF5B30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B146E50-41B0-4CFC-BB07-9712AA9D666E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15633,18 +15633,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F21AA076-BC69-4114-978B-E57CB60AE758}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D17AEDE7-AABA-4F76-A0E9-9063D7DEF389}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{65930680-5E0F-41F7-AB86-40C00BCD3369}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1AB00BBC-3989-4EB5-AB7E-43DB70DDAF37}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{152B2DA1-C332-47D4-93E6-4F6530D5CD99}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{41249A4B-F95A-4EE9-9B6E-EEAD2FA5457F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{708565CA-776B-4F17-8363-4E4713DE64C5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9C7F043A-B372-419A-9EF7-F56CCA9F258F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2F04F4BB-5C21-4783-B95E-499BABD81380}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{07B8AE82-8871-410D-93FA-6ACD96E59F38}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{211EA39F-C846-4A50-B3DA-0820C1F35695}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DCDA3998-A1F9-4D14-80EA-FADBD7B79B2E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E16AB235-50A5-4DB1-9A68-6420CCE220DD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{67DDA158-C29F-44BF-A864-A8B8826BFAB9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{230178EC-27FE-40BF-8C0C-93A011356ABF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{070D9275-FAE3-4806-807A-C12721CD9115}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C1F9763D-C9C0-4BB6-AF63-2E5176D9D3AE}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{902A3E45-8DF0-4EDA-8E44-501E456BA72F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0BFB1EB9-C817-470E-89B7-CD126BD6C92D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9E40A112-31DA-4541-8FF0-C55E72565723}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6112178A-7050-40BA-BD90-5288F99DDCC0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{98946CE5-230F-4334-B593-2FC96CBDD872}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{890DA5C1-DC09-49E9-82B6-6C3CDC0C11B5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1BFE1E5E-D214-4091-A13B-337E3BB1E43B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15657,7 +15657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5497989-252C-43A8-83B0-5FC4FD26007C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BE9916-F0E9-468B-A8F9-FB8034A87C64}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16940,18 +16940,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F757931-EC22-4715-A2FF-BCD14759F751}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3FE90D09-1642-4FFC-941F-3D7084C10890}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{85E6A2C7-A6CD-479D-8169-2C3072E526A9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A100BA3D-5574-4F1C-B342-578F85E69DFE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AF2E582B-20A3-49D4-A270-5B99CD3657CC}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E6162A31-A1EC-49D8-93DE-EB6EF10AF9F1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{05DDA343-4C43-4290-9BA3-F200F48F4A03}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E023FDE4-3F26-481F-8858-B7AE02FB5877}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{03C94803-2C20-4E4A-A4D0-954D490C5E79}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F7C6F489-1240-4095-91CD-45214468FD0F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2B651B0F-7E84-4479-9EAD-C5374F1690D4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9E0EC0BB-C489-4F7A-B7E7-554E07856A8B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1397A196-F5D6-4EFA-863A-84A60846CCC6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3E865C4D-A2FB-4C6B-B767-D852ECCC0B37}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3E882CFB-9346-4133-B2F6-3ACC43BDC4F0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{179EBBF2-A5DD-4E5E-B8F8-E181A5593DF2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{76134385-EBCF-4AB1-84D5-506EAF27B8BB}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D7DDF378-167B-4D0C-A0C5-17CE20ECC0B1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9EA2A14D-C78D-4952-BF6C-A2820D5641F3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A4B42768-DEE4-418B-8A4C-8B23F16ED5C4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1F12C2B1-FE1F-4136-A130-394C8427E42B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{10D6A326-FEE9-4C48-94AD-90E0004C9147}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A41174FF-73CF-49A9-A6B7-9882E55DEDFE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1443268C-CAC4-4541-8B20-5E88976CFADD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
